--- a/data/trans_dic/P56$privada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,17 +730,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,97</t>
+          <t>0,0; 57,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,54</t>
+          <t>0,0; 37,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,38</t>
+          <t>0,0; 68,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,76</t>
+          <t>0,0; 24,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,27</t>
+          <t>0,0; 37,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 74,17</t>
+          <t>22,61; 74,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,44</t>
+          <t>0,0; 57,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,41</t>
+          <t>0,0; 21,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 28,41</t>
+          <t>2,88; 28,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,99; 59,58</t>
+          <t>17,39; 59,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,59 +875,59 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,54</t>
+          <t>0,0; 58,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 56,62</t>
+          <t>7,12; 57,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,72</t>
+          <t>0,0; 41,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 37,87</t>
+          <t>8,26; 38,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,85</t>
+          <t>0,0; 39,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 27,56</t>
+          <t>9,71; 28,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,25</t>
+          <t>0,0; 34,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 30,8</t>
+          <t>6,92; 31,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,97</t>
+          <t>0,0; 28,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 29,55</t>
+          <t>12,38; 29,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,67</t>
+          <t>0,0; 75,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 26,1</t>
+          <t>2,92; 26,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,45</t>
+          <t>0,0; 52,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,27</t>
+          <t>0,0; 34,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 72,14</t>
+          <t>9,56; 72,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 34,88</t>
+          <t>13,69; 34,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,69</t>
+          <t>0,0; 44,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,81</t>
+          <t>0,0; 23,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 59,8</t>
+          <t>12,21; 60,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 26,57</t>
+          <t>11,72; 27,77</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,92</t>
+          <t>0,0; 62,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,71</t>
+          <t>0,0; 36,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,59</t>
+          <t>0,0; 37,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,95</t>
+          <t>0,0; 50,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,93</t>
+          <t>0,0; 23,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,37</t>
+          <t>0,0; 40,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 40,92</t>
+          <t>16,32; 41,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,87</t>
+          <t>0,0; 33,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 24,63</t>
+          <t>3,31; 26,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 31,91</t>
+          <t>2,49; 30,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 30,6</t>
+          <t>11,89; 31,75</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,77</t>
+          <t>0,0; 66,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,13</t>
+          <t>0,0; 43,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,41</t>
+          <t>0,0; 61,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 38,17</t>
+          <t>5,03; 37,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,65</t>
+          <t>0,0; 47,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 29,68</t>
+          <t>7,25; 30,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,27</t>
+          <t>0,0; 46,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 33,58</t>
+          <t>4,17; 34,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,83</t>
+          <t>0,0; 48,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,05; 28,04</t>
+          <t>7,62; 27,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,64 +1430,64 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,75</t>
+          <t>0,0; 50,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,69</t>
+          <t>0,0; 31,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 31,18</t>
+          <t>7,19; 30,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,0</t>
+          <t>0,0; 64,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 47,52</t>
+          <t>5,33; 46,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,66</t>
+          <t>0,0; 40,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 22,45</t>
+          <t>6,99; 22,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 53,46</t>
+          <t>6,53; 52,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 33,89</t>
+          <t>6,66; 34,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 35,18</t>
+          <t>2,76; 36,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 22,01</t>
+          <t>9,08; 21,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,92</t>
+          <t>0,0; 65,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,37</t>
+          <t>0,0; 46,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 39,32</t>
+          <t>4,6; 39,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,39</t>
+          <t>0,0; 31,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 39,54</t>
+          <t>9,19; 41,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 30,65</t>
+          <t>5,89; 29,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 20,19</t>
+          <t>4,54; 21,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,29</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 33,49</t>
+          <t>8,54; 34,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 27,77</t>
+          <t>7,63; 26,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 18,71</t>
+          <t>4,37; 17,9</t>
         </is>
       </c>
     </row>
@@ -1714,52 +1715,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,41</t>
+          <t>0,0; 44,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,97; 32,59</t>
+          <t>8,5; 34,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,56</t>
+          <t>0,0; 24,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 29,16</t>
+          <t>3,56; 29,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 40,46</t>
+          <t>5,58; 40,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,41; 26,98</t>
+          <t>11,79; 27,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,0; 14,54</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 22,15</t>
+          <t>2,68; 20,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,15; 32,08</t>
+          <t>4,35; 34,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,03; 25,46</t>
+          <t>12,27; 25,46</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,56</t>
+          <t>1,78; 16,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,54</t>
+          <t>4,0; 17,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 22,63</t>
+          <t>7,35; 22,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,12; 21,3</t>
+          <t>9,8; 21,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 20,34</t>
+          <t>5,86; 19,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,59; 20,3</t>
+          <t>9,76; 20,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,47; 23,43</t>
+          <t>9,66; 22,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,75</t>
+          <t>14,91; 21,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,22</t>
+          <t>5,77; 15,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,24; 17,41</t>
+          <t>9,71; 18,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,5; 20,87</t>
+          <t>10,24; 20,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,58</t>
+          <t>14,37; 20,3</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3838</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3173</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3520</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4043</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3722</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3441</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5277</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6851</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1860; 6104</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3423</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6170</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>816; 8006</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2305; 7939</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3420</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7387</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7154</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7387</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2088</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10574</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2194</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3199</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>868; 6958</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6139</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3048; 14186</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7061</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4072; 11948</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7421</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3365; 15500</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6565</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6697; 16207</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7493</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5747</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9636</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4568</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>535; 4871</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6452</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6571</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1030; 7823</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4586; 11587</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6765</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6796</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2050; 10178</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6075; 14393</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5224</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3243</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4015</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5827</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1146</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3605</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3470</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5429</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5286</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10148</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3227; 8231</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4483</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1032; 8139</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>870; 10785</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3455; 9221</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3209</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3425</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4477</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 616</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3290</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5495</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>992; 7460</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5761</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1202; 4992</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6145</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1102; 9003</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6318</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1835; 6641</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2775</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3115</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5294</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7087</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2838</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5348</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3448</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1189; 5093</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6790</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1075; 9490</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8849</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2220; 6993</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>929; 7429</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2055; 10493</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>907; 11977</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4386; 10264</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3585</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>7426</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6394</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3399</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7249</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>917; 7796</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3846</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1433</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3256; 14610</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2526; 12515</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1904; 8834</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3442</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4355; 17403</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4793; 16862</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2376; 9726</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3313</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10594</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3313</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>14252</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1660</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2066</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4029</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1768; 7220</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7403</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1069; 8807</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1269; 9300</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6762; 16006</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7146</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1043; 8000</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1386; 10833</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>9585; 19896</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7429</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>9746</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>15198</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>10799</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>29829</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>45911</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>14260</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>37258</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>36314</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>61110</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>858; 7949</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3142; 13566</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5299; 16468</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>10000; 21474</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5480; 18381</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>20026; 42779</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>16591; 38885</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>37439; 54507</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>8182; 22663</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>27548; 51117</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>24973; 48944</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>50756; 71672</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>